--- a/Alorithm_Study/PrintDocument/DataSet.xlsx
+++ b/Alorithm_Study/PrintDocument/DataSet.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23670" windowHeight="7125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="출력" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$148</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <oleSize ref="A1:U20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,14 @@
   </si>
   <si>
     <t>Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_Fibonacci</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,11 +90,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2545,67 +2557,67 @@
     <row r="4" spans="5:5">
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5">
         <f t="shared" ref="E5:E26" ca="1" si="0">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -2617,55 +2629,55 @@
     <row r="16" spans="5:5">
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="5:5">
@@ -2697,4 +2709,46 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Alorithm_Study/PrintDocument/DataSet.xlsx
+++ b/Alorithm_Study/PrintDocument/DataSet.xlsx
@@ -16,12 +16,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$148</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:U20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +43,30 @@
   </si>
   <si>
     <t>DP_Fibonacci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_Binomial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_MatrixChainMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_MatrixShort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_NonCrossLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algospot_DP_JumpGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algospot_DP_Numbers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2549,7 +2572,7 @@
   <dimension ref="E4:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2557,7 +2580,7 @@
     <row r="4" spans="5:5">
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2569,31 +2592,31 @@
     <row r="6" spans="5:5">
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -2605,31 +2628,31 @@
     <row r="12" spans="5:5">
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -2641,13 +2664,13 @@
     <row r="18" spans="5:5">
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:5">
@@ -2671,25 +2694,25 @@
     <row r="23" spans="5:5">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2713,15 +2736,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2742,6 +2765,34 @@
     <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Alorithm_Study/PrintDocument/DataSet.xlsx
+++ b/Alorithm_Study/PrintDocument/DataSet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>Algospot_DP_Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algospot_DP_Wildcard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2580,13 +2584,13 @@
     <row r="4" spans="5:5">
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5">
         <f t="shared" ref="E5:E26" ca="1" si="0">RANDBETWEEN(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="5:5">
@@ -2598,25 +2602,25 @@
     <row r="7" spans="5:5">
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -2634,19 +2638,19 @@
     <row r="13" spans="5:5">
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="5:5">
@@ -2658,31 +2662,31 @@
     <row r="17" spans="5:5">
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:5">
@@ -2694,13 +2698,13 @@
     <row r="23" spans="5:5">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="5:5">
@@ -2736,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2771,28 +2775,51 @@
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Alorithm_Study/PrintDocument/DataSet.xlsx
+++ b/Alorithm_Study/PrintDocument/DataSet.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="23670" windowHeight="7125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23670" windowHeight="7125"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="출력" sheetId="4" r:id="rId4"/>
+    <sheet name="엑셀함수" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="출력" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$E$148</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,70 @@
   </si>
   <si>
     <t>Algospot_DP_Wildcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANDBETWEEN(1,100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1부터 100포함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMBIN(5,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERMUT(5,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대공약수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCD(3,6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소공배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM(2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD(72,10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER(2,3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +514,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>COMBIN(5,3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <f>PERMUT(5,3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f>FACT(3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <f>GCD(3,6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <f>LCM(2,3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <f>MOD(72,10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M148"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2571,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:E26"/>
   <sheetViews>
@@ -2584,7 +2761,7 @@
     <row r="4" spans="5:5">
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2608,7 +2785,7 @@
     <row r="8" spans="5:5">
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="5:5">
@@ -2620,25 +2797,25 @@
     <row r="10" spans="5:5">
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -2650,19 +2827,19 @@
     <row r="15" spans="5:5">
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:5">
@@ -2674,13 +2851,13 @@
     <row r="19" spans="5:5">
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="5:5">
@@ -2692,25 +2869,25 @@
     <row r="22" spans="5:5">
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="5:5">
@@ -2725,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2738,11 +2915,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Alorithm_Study/PrintDocument/DataSet.xlsx
+++ b/Alorithm_Study/PrintDocument/DataSet.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="23670" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23670" windowHeight="7125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="엑셀함수" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="출력" sheetId="4" r:id="rId5"/>
+    <sheet name="출력" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$E$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$1:$E$148</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>POWER(2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_LCSubquences</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -625,6 +629,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M148"/>
   <sheetViews>
@@ -2748,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:E26"/>
   <sheetViews>
@@ -2767,25 +2869,25 @@
     <row r="5" spans="5:5">
       <c r="E5">
         <f t="shared" ref="E5:E26" ca="1" si="0">RANDBETWEEN(0,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="5:5">
@@ -2803,25 +2905,25 @@
     <row r="11" spans="5:5">
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -2833,19 +2935,19 @@
     <row r="16" spans="5:5">
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -2863,7 +2965,7 @@
     <row r="21" spans="5:5">
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:5">
@@ -2875,25 +2977,25 @@
     <row r="23" spans="5:5">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2913,97 +3015,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>